--- a/_analysis/US8K_AV_metrics_CNN_2D.xlsx
+++ b/_analysis/US8K_AV_metrics_CNN_2D.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Andre_Florentino\03_particular\04_mestrado-FEI\97_master\_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3CF0DE-0B48-40A2-8CCA-FF1442DAA42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48ECFC9-7E4A-486D-8AB0-0A9AAEAC848C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="764" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="764" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="3" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="27">
   <si>
     <t>index</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Su_windowed</t>
+  </si>
+  <si>
+    <t>Considered in the article for DiB</t>
   </si>
 </sst>
 </file>
@@ -300,7 +303,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,6 +492,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,7 +716,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -772,14 +781,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -7354,8 +7367,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="205759" y="11784618"/>
-              <a:ext cx="14121928" cy="4585278"/>
+              <a:off x="196234" y="12260868"/>
+              <a:ext cx="13765693" cy="4775778"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8466,7 +8479,7 @@
     </format>
   </formats>
   <conditionalFormats count="18">
-    <conditionalFormat priority="2">
+    <conditionalFormat priority="21">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -8474,7 +8487,353 @@
               <x v="0"/>
             </reference>
             <reference field="1" count="1">
-              <x v="11"/>
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="5" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="20">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1">
+              <x v="1"/>
+            </reference>
+            <reference field="2" count="5" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="19">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1">
+              <x v="2"/>
+            </reference>
+            <reference field="2" count="5" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="18">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1">
+              <x v="3"/>
+            </reference>
+            <reference field="2" count="5" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="17">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1">
+              <x v="4"/>
+            </reference>
+            <reference field="2" count="5" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="16">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1">
+              <x v="5"/>
+            </reference>
+            <reference field="2" count="5" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="14">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1">
+              <x v="0"/>
+            </reference>
+            <reference field="2" count="10" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="13">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1">
+              <x v="1"/>
+            </reference>
+            <reference field="2" count="10" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="12">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1">
+              <x v="2"/>
+            </reference>
+            <reference field="2" count="10" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="11">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1">
+              <x v="3"/>
+            </reference>
+            <reference field="2" count="10" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="10">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1">
+              <x v="4"/>
+            </reference>
+            <reference field="2" count="10" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="9">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1">
+              <x v="5"/>
+            </reference>
+            <reference field="2" count="10" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="7">
+      <pivotAreas count="1">
+        <pivotArea fieldPosition="0">
+          <references count="2">
+            <reference field="1" count="1">
+              <x v="6"/>
+            </reference>
+            <reference field="2" count="0" selected="0"/>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="6">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1">
+              <x v="7"/>
+            </reference>
+            <reference field="2" count="10" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="5">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1">
+              <x v="8"/>
+            </reference>
+            <reference field="2" count="10" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="4">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1">
+              <x v="9"/>
             </reference>
             <reference field="2" count="10" selected="0">
               <x v="0"/>
@@ -8518,7 +8877,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="4">
+    <conditionalFormat priority="2">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -8526,7 +8885,7 @@
               <x v="0"/>
             </reference>
             <reference field="1" count="1">
-              <x v="9"/>
+              <x v="11"/>
             </reference>
             <reference field="2" count="10" selected="0">
               <x v="0"/>
@@ -8539,352 +8898,6 @@
               <x v="7"/>
               <x v="8"/>
               <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="5">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1">
-              <x v="8"/>
-            </reference>
-            <reference field="2" count="10" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="6">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1">
-              <x v="7"/>
-            </reference>
-            <reference field="2" count="10" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="7">
-      <pivotAreas count="1">
-        <pivotArea fieldPosition="0">
-          <references count="2">
-            <reference field="1" count="1">
-              <x v="6"/>
-            </reference>
-            <reference field="2" count="0" selected="0"/>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="9">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1">
-              <x v="5"/>
-            </reference>
-            <reference field="2" count="10" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="10">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1">
-              <x v="4"/>
-            </reference>
-            <reference field="2" count="10" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="11">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1">
-              <x v="3"/>
-            </reference>
-            <reference field="2" count="10" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="12">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1">
-              <x v="2"/>
-            </reference>
-            <reference field="2" count="10" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="13">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1">
-              <x v="1"/>
-            </reference>
-            <reference field="2" count="10" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="14">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="10" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="16">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1">
-              <x v="5"/>
-            </reference>
-            <reference field="2" count="5" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="17">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1">
-              <x v="4"/>
-            </reference>
-            <reference field="2" count="5" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="18">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1">
-              <x v="3"/>
-            </reference>
-            <reference field="2" count="5" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="19">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1">
-              <x v="2"/>
-            </reference>
-            <reference field="2" count="5" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="20">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1">
-              <x v="1"/>
-            </reference>
-            <reference field="2" count="5" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="21">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1">
-              <x v="0"/>
-            </reference>
-            <reference field="2" count="5" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
             </reference>
           </references>
         </pivotArea>
@@ -9033,6 +9046,25 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1">
         <x14:conditionalFormats count="2">
+          <x14:conditionalFormat priority="8" id="{4275FAED-FBAC-4D01-8DE9-0D7255CD9300}">
+            <x14:pivotAreas count="1">
+              <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+                <references count="2">
+                  <reference field="4294967294" count="1" selected="0">
+                    <x v="0"/>
+                  </reference>
+                  <reference field="1" count="6">
+                    <x v="0"/>
+                    <x v="1"/>
+                    <x v="2"/>
+                    <x v="3"/>
+                    <x v="4"/>
+                    <x v="5"/>
+                  </reference>
+                </references>
+              </pivotArea>
+            </x14:pivotAreas>
+          </x14:conditionalFormat>
           <x14:conditionalFormat priority="1" id="{3A9D3AF8-726A-4989-81CB-D4128E8FAE4A}">
             <x14:pivotAreas count="1">
               <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
@@ -9047,25 +9079,6 @@
                     <x v="9"/>
                     <x v="10"/>
                     <x v="11"/>
-                  </reference>
-                </references>
-              </pivotArea>
-            </x14:pivotAreas>
-          </x14:conditionalFormat>
-          <x14:conditionalFormat priority="8" id="{4275FAED-FBAC-4D01-8DE9-0D7255CD9300}">
-            <x14:pivotAreas count="1">
-              <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-                <references count="2">
-                  <reference field="4294967294" count="1" selected="0">
-                    <x v="0"/>
-                  </reference>
-                  <reference field="1" count="6">
-                    <x v="0"/>
-                    <x v="1"/>
-                    <x v="2"/>
-                    <x v="3"/>
-                    <x v="4"/>
-                    <x v="5"/>
                   </reference>
                 </references>
               </pivotArea>
@@ -9382,34 +9395,34 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.44140625" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="21.44140625" customWidth="1"/>
-    <col min="13" max="13" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="21.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="2:18" s="7" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" s="7" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
       <c r="C3" s="15" t="s">
         <v>19</v>
@@ -9432,13 +9445,13 @@
       <c r="Q3"/>
       <c r="R3"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="18"/>
       <c r="C5" s="19" t="s">
         <v>11</v>
@@ -9448,7 +9461,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>20</v>
       </c>
@@ -9462,21 +9475,25 @@
       </c>
       <c r="E6"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="26">
         <f>AVERAGEIF(raw_data!$C$2:$C$61,Comparison!B7,raw_data!$F$2:$F$61)</f>
         <v>0.82784970344753239</v>
       </c>
-      <c r="D7" s="17" cm="1">
+      <c r="D7" s="26" cm="1">
         <f t="array" ref="D7">_xlfn.STDEV.S(IF(raw_data!$C$2:$C$61=B7, raw_data!$F$2:$F$61))</f>
         <v>3.601469079383416E-2</v>
       </c>
-      <c r="E7"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="E7" s="27"/>
+      <c r="F7" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="27"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>22</v>
       </c>
@@ -9490,7 +9507,7 @@
       </c>
       <c r="E8"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>23</v>
       </c>
@@ -9504,7 +9521,7 @@
       </c>
       <c r="E9"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
         <v>24</v>
       </c>
@@ -9518,96 +9535,100 @@
       </c>
       <c r="E10"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="28">
         <f>AVERAGEIF(raw_data!$C$2:$C$61,Comparison!B11,raw_data!$F$2:$F$61)</f>
         <v>0.80028823293293061</v>
       </c>
-      <c r="D11" s="24" cm="1">
+      <c r="D11" s="28" cm="1">
         <f t="array" ref="D11">_xlfn.STDEV.S(IF(raw_data!$C$2:$C$61=B11, raw_data!$F$2:$F$61))</f>
         <v>2.7126764295843944E-2</v>
       </c>
-      <c r="E11"/>
-    </row>
-    <row r="42" spans="2:12" s="20" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-    </row>
-    <row r="43" spans="2:12" s="20" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-    </row>
-    <row r="44" spans="2:12" s="20" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-    </row>
-    <row r="45" spans="2:12" s="20" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="27"/>
+    </row>
+    <row r="42" spans="2:12" s="20" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+    </row>
+    <row r="43" spans="2:12" s="20" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+    </row>
+    <row r="44" spans="2:12" s="20" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+    </row>
+    <row r="45" spans="2:12" s="20" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D48" s="21"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="21"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="21"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="21"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="21"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="21"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" s="21"/>
     </row>
   </sheetData>
@@ -9629,20 +9650,20 @@
   <dimension ref="B2:M199"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="11.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="5" customWidth="1"/>
-    <col min="10" max="12" width="11.6640625" customWidth="1"/>
-    <col min="13" max="13" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="11.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="5" customWidth="1"/>
+    <col min="10" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
@@ -9655,7 +9676,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -9693,7 +9714,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
@@ -9731,7 +9752,7 @@
         <v>0.84137538663366329</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
@@ -9769,7 +9790,7 @@
         <v>0.82784970344753217</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
@@ -9807,7 +9828,7 @@
         <v>0.86286536315074325</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
@@ -9845,7 +9866,7 @@
         <v>0.85265372074970824</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
@@ -9883,7 +9904,7 @@
         <v>0.76980221302624985</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
@@ -9921,7 +9942,7 @@
         <v>0.80028823293293061</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
@@ -9959,13 +9980,13 @@
         <v>0.82580576999013811</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I11"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="I12"/>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -9975,7 +9996,7 @@
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
     </row>
-    <row r="51" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -9985,7 +10006,7 @@
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
     </row>
-    <row r="52" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -9995,7 +10016,7 @@
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
     </row>
-    <row r="53" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -10005,7 +10026,7 @@
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
     </row>
-    <row r="54" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -10015,7 +10036,7 @@
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
     </row>
-    <row r="55" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -10025,7 +10046,7 @@
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
     </row>
-    <row r="56" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -10035,7 +10056,7 @@
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
     </row>
-    <row r="57" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -10045,7 +10066,7 @@
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
     </row>
-    <row r="58" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -10055,7 +10076,7 @@
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
     </row>
-    <row r="59" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -10065,7 +10086,7 @@
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
     </row>
-    <row r="60" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -10075,7 +10096,7 @@
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
     </row>
-    <row r="61" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -10085,7 +10106,7 @@
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
     </row>
-    <row r="62" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -10095,7 +10116,7 @@
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
     </row>
-    <row r="63" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -10105,7 +10126,7 @@
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
     </row>
-    <row r="64" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -10115,7 +10136,7 @@
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
     </row>
-    <row r="65" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -10125,7 +10146,7 @@
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
     </row>
-    <row r="66" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -10135,7 +10156,7 @@
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
     </row>
-    <row r="67" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -10145,7 +10166,7 @@
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
     </row>
-    <row r="68" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -10155,7 +10176,7 @@
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
     </row>
-    <row r="69" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -10165,7 +10186,7 @@
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
     </row>
-    <row r="70" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -10175,7 +10196,7 @@
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
     </row>
-    <row r="71" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -10185,7 +10206,7 @@
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
     </row>
-    <row r="72" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -10195,7 +10216,7 @@
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
     </row>
-    <row r="73" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -10205,7 +10226,7 @@
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
     </row>
-    <row r="74" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -10215,7 +10236,7 @@
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
     </row>
-    <row r="75" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -10225,7 +10246,7 @@
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
     </row>
-    <row r="76" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -10235,7 +10256,7 @@
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
     </row>
-    <row r="77" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -10245,7 +10266,7 @@
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
     </row>
-    <row r="78" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -10255,7 +10276,7 @@
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
     </row>
-    <row r="79" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -10265,7 +10286,7 @@
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
     </row>
-    <row r="80" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -10275,7 +10296,7 @@
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
     </row>
-    <row r="81" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -10285,7 +10306,7 @@
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
     </row>
-    <row r="82" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -10295,7 +10316,7 @@
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
     </row>
-    <row r="83" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -10305,7 +10326,7 @@
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
     </row>
-    <row r="84" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -10315,7 +10336,7 @@
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
     </row>
-    <row r="85" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -10325,7 +10346,7 @@
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
     </row>
-    <row r="86" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -10335,7 +10356,7 @@
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
     </row>
-    <row r="87" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -10345,7 +10366,7 @@
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
     </row>
-    <row r="88" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -10355,7 +10376,7 @@
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
     </row>
-    <row r="89" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -10365,7 +10386,7 @@
       <c r="K89" s="8"/>
       <c r="L89" s="8"/>
     </row>
-    <row r="90" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -10375,7 +10396,7 @@
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
     </row>
-    <row r="91" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -10385,148 +10406,148 @@
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
     </row>
-    <row r="93" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:12" x14ac:dyDescent="0.25">
       <c r="I93"/>
     </row>
-    <row r="94" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:12" x14ac:dyDescent="0.25">
       <c r="I94"/>
     </row>
-    <row r="95" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:12" x14ac:dyDescent="0.25">
       <c r="I95"/>
     </row>
-    <row r="96" spans="5:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:12" x14ac:dyDescent="0.25">
       <c r="I96"/>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I97"/>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I98"/>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I99"/>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I100"/>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I101"/>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I102"/>
     </row>
-    <row r="116" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K116" s="2"/>
     </row>
-    <row r="117" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K117" s="2"/>
     </row>
-    <row r="118" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K118" s="2"/>
     </row>
-    <row r="119" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K119" s="2"/>
     </row>
-    <row r="120" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K120" s="2"/>
     </row>
-    <row r="121" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K121" s="2"/>
     </row>
-    <row r="122" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K122" s="2"/>
     </row>
-    <row r="123" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K123" s="2"/>
     </row>
-    <row r="170" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I170"/>
     </row>
-    <row r="171" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I171"/>
     </row>
-    <row r="172" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I172"/>
     </row>
-    <row r="173" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I173"/>
     </row>
-    <row r="174" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I174"/>
     </row>
-    <row r="175" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I175"/>
     </row>
-    <row r="176" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I176"/>
     </row>
-    <row r="177" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I177"/>
     </row>
-    <row r="178" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I178"/>
     </row>
-    <row r="179" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I179"/>
     </row>
-    <row r="180" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I180"/>
     </row>
-    <row r="181" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I181"/>
     </row>
-    <row r="182" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I182"/>
     </row>
-    <row r="183" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I183"/>
     </row>
-    <row r="184" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I184"/>
     </row>
-    <row r="185" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I185"/>
     </row>
-    <row r="186" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I186"/>
     </row>
-    <row r="187" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I187"/>
     </row>
-    <row r="188" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I188"/>
     </row>
-    <row r="189" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I189"/>
     </row>
-    <row r="190" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I190"/>
     </row>
-    <row r="191" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I191"/>
     </row>
-    <row r="192" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I192"/>
     </row>
-    <row r="193" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I193"/>
     </row>
-    <row r="194" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I194"/>
     </row>
-    <row r="195" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I195"/>
     </row>
-    <row r="196" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I196"/>
     </row>
-    <row r="197" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I197"/>
     </row>
-    <row r="198" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I198"/>
     </row>
-    <row r="199" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I199"/>
     </row>
   </sheetData>
@@ -10809,25 +10830,25 @@
       <selection activeCell="P68" sqref="P68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10865,7 +10886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10906,7 +10927,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10947,7 +10968,7 @@
         <v>578125</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10988,7 +11009,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -11029,7 +11050,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -11070,7 +11091,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -11111,7 +11132,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -11152,7 +11173,7 @@
         <v>359375</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -11193,7 +11214,7 @@
         <v>390625</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -11234,7 +11255,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -11275,7 +11296,7 @@
         <v>343.75</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -11316,7 +11337,7 @@
         <v>296875</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -11357,7 +11378,7 @@
         <v>234375</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -11398,7 +11419,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -11439,7 +11460,7 @@
         <v>312.5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -11480,7 +11501,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -11521,7 +11542,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -11562,7 +11583,7 @@
         <v>234375</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -11603,7 +11624,7 @@
         <v>93.75</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -11644,7 +11665,7 @@
         <v>343.75</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -11685,7 +11706,7 @@
         <v>203125</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -11726,7 +11747,7 @@
         <v>2390625</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -11767,7 +11788,7 @@
         <v>1859375</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -11808,7 +11829,7 @@
         <v>2140625</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -11849,7 +11870,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
@@ -11890,7 +11911,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5</v>
       </c>
@@ -11931,7 +11952,7 @@
         <v>2062.5</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6</v>
       </c>
@@ -11972,7 +11993,7 @@
         <v>1703125</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>7</v>
       </c>
@@ -12013,7 +12034,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>8</v>
       </c>
@@ -12054,7 +12075,7 @@
         <v>2203125</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>9</v>
       </c>
@@ -12095,7 +12116,7 @@
         <v>1515625</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10</v>
       </c>
@@ -12136,7 +12157,7 @@
         <v>1562.5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>11</v>
       </c>
@@ -12177,7 +12198,7 @@
         <v>1140625</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>12</v>
       </c>
@@ -12218,7 +12239,7 @@
         <v>1171875</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>13</v>
       </c>
@@ -12259,7 +12280,7 @@
         <v>703125</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>14</v>
       </c>
@@ -12300,7 +12321,7 @@
         <v>1109375</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>15</v>
       </c>
@@ -12341,7 +12362,7 @@
         <v>765625</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>16</v>
       </c>
@@ -12382,7 +12403,7 @@
         <v>781.25</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>17</v>
       </c>
@@ -12423,7 +12444,7 @@
         <v>718.75</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>18</v>
       </c>
@@ -12464,7 +12485,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>19</v>
       </c>
@@ -12505,7 +12526,7 @@
         <v>765625</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0</v>
       </c>
@@ -12546,7 +12567,7 @@
         <v>1062.5</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -12587,7 +12608,7 @@
         <v>531.25</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -12628,7 +12649,7 @@
         <v>531.25</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -12669,7 +12690,7 @@
         <v>703125</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
@@ -12710,7 +12731,7 @@
         <v>421875</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
@@ -12751,7 +12772,7 @@
         <v>703125</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6</v>
       </c>
@@ -12792,7 +12813,7 @@
         <v>781.25</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>7</v>
       </c>
@@ -12833,7 +12854,7 @@
         <v>609375</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>8</v>
       </c>
@@ -12874,7 +12895,7 @@
         <v>578125</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>9</v>
       </c>
@@ -12915,7 +12936,7 @@
         <v>390625</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10</v>
       </c>
@@ -12956,7 +12977,7 @@
         <v>390625</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>11</v>
       </c>
@@ -12997,7 +13018,7 @@
         <v>562.5</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>12</v>
       </c>
@@ -13038,7 +13059,7 @@
         <v>265625</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>13</v>
       </c>
@@ -13079,7 +13100,7 @@
         <v>296875</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>14</v>
       </c>
@@ -13120,7 +13141,7 @@
         <v>562.5</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>15</v>
       </c>
@@ -13161,7 +13182,7 @@
         <v>296875</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>16</v>
       </c>
@@ -13202,7 +13223,7 @@
         <v>578125</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>17</v>
       </c>
@@ -13243,7 +13264,7 @@
         <v>609375</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>18</v>
       </c>
@@ -13284,7 +13305,7 @@
         <v>187.5</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>19</v>
       </c>

--- a/_analysis/US8K_AV_metrics_CNN_2D.xlsx
+++ b/_analysis/US8K_AV_metrics_CNN_2D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Andre_Florentino\03_particular\04_mestrado-FEI\97_master\_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48ECFC9-7E4A-486D-8AB0-0A9AAEAC848C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F9A86B-1A73-491F-8EE0-D171C9F80EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="764" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="764" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="3" r:id="rId1"/>
@@ -160,7 +160,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +298,20 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="4" tint="0.79998168889431442"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -716,7 +730,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -727,7 +741,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -775,17 +788,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -794,6 +798,27 @@
     <xf numFmtId="10" fontId="0" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -839,7 +864,160 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="46">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.79998168889431442"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
     <dxf>
       <alignment vertical="center"/>
     </dxf>
@@ -875,6 +1053,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1571,70 +1754,7 @@
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>US8K_AV    Accuracy per fold</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.46033955675823957"/>
-          <c:y val="1.5638533966019812E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -1935,7 +2055,66 @@
         <c:idx val="6"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:numFmt formatCode="0%" sourceLinked="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:alpha val="43000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1955,7 +2134,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="b" anchorCtr="1">
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
@@ -1963,7 +2142,10 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="bg1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1973,9 +2155,8 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="inBase"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1986,10 +2167,12 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="7"/>
+        <c:idx val="8"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent3">
+              <a:alpha val="72000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2009,7 +2192,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
@@ -2017,7 +2200,10 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="bg1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2027,9 +2213,8 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="inBase"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2040,10 +2225,12 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="8"/>
+        <c:idx val="9"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="FFC000">
+              <a:alpha val="56000"/>
+            </a:srgbClr>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2063,7 +2250,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
@@ -2071,7 +2258,10 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="bg1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2081,9 +2271,8 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="inBase"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2094,10 +2283,12 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="9"/>
+        <c:idx val="10"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="00B0F0">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2117,7 +2308,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
@@ -2125,7 +2316,10 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2135,9 +2329,8 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="inBase"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2148,10 +2341,12 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="10"/>
+        <c:idx val="11"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="00B050">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2171,7 +2366,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
@@ -2179,7 +2374,10 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="bg1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2189,9 +2387,8 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="inBase"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2202,10 +2399,12 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="11"/>
+        <c:idx val="12"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="002060">
+              <a:alpha val="57000"/>
+            </a:srgbClr>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2225,7 +2424,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
@@ -2233,7 +2432,10 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="bg1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2243,9 +2445,8 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="inBase"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2256,10 +2457,12 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="12"/>
+        <c:idx val="13"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="7030A0">
+              <a:alpha val="47000"/>
+            </a:srgbClr>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2279,7 +2482,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
@@ -2287,7 +2490,10 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="bg1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2297,9 +2503,8 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="inBase"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2310,10 +2515,12 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="13"/>
+        <c:idx val="14"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="FF00FF">
+              <a:alpha val="44000"/>
+            </a:srgbClr>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2333,7 +2540,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
@@ -2341,7 +2548,10 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="bg1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2351,9 +2561,8 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="inBase"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2364,10 +2573,13 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="14"/>
+        <c:idx val="15"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="50000"/>
+              <a:alpha val="46000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2387,7 +2599,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
@@ -2395,7 +2607,10 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="bg1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2405,63 +2620,8 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="inBase"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="15"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="inBase"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2516,7 +2676,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2525,6 +2685,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="0%" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2533,15 +2694,18 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="b" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2551,7 +2715,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inBase"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2654,7 +2817,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent2">
+                <a:alpha val="43000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2662,61 +2827,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inBase"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Accuracy_per_fold!$B$4:$B$10</c:f>
@@ -2792,7 +2902,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent3">
+                <a:alpha val="72000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2800,61 +2912,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inBase"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Accuracy_per_fold!$B$4:$B$10</c:f>
@@ -2930,7 +2987,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:srgbClr val="FFC000">
+                <a:alpha val="56000"/>
+              </a:srgbClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2938,61 +2997,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inBase"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Accuracy_per_fold!$B$4:$B$10</c:f>
@@ -3068,7 +3072,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:srgbClr val="00B0F0">
+                <a:alpha val="43000"/>
+              </a:srgbClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3076,61 +3082,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inBase"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Accuracy_per_fold!$B$4:$B$10</c:f>
@@ -3199,14 +3150,16 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:srgbClr val="002060">
+                <a:alpha val="57000"/>
+              </a:srgbClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3224,61 +3177,6 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inBase"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Accuracy_per_fold!$B$4:$B$10</c:f>
@@ -3312,22 +3210,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.78231292517006801</c:v>
+                  <c:v>0.88478260869565195</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.75510204081632604</c:v>
+                  <c:v>0.83913043478260796</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83484504913076296</c:v>
+                  <c:v>0.86847826086956503</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77815570672713497</c:v>
+                  <c:v>0.87789855072463696</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71396177518626502</c:v>
+                  <c:v>0.79720496894409898</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.78911564625850295</c:v>
+                  <c:v>0.82142857142857095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3347,16 +3245,16 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
+              <a:srgbClr val="7030A0">
+                <a:alpha val="47000"/>
+              </a:srgbClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3364,61 +3262,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inBase"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Accuracy_per_fold!$B$4:$B$10</c:f>
@@ -3452,22 +3295,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.88478260869565195</c:v>
+                  <c:v>0.85591397849462303</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83913043478260796</c:v>
+                  <c:v>0.85806451612903201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.86847826086956503</c:v>
+                  <c:v>0.87885304659498198</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.87789855072463696</c:v>
+                  <c:v>0.84587813620071595</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.79720496894409898</c:v>
+                  <c:v>0.77480798771121295</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82142857142857095</c:v>
+                  <c:v>0.79109062980030698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3487,16 +3330,16 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
+              <a:srgbClr val="00B050">
+                <a:alpha val="50000"/>
+              </a:srgbClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3504,61 +3347,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inBase"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Accuracy_per_fold!$B$4:$B$10</c:f>
@@ -3592,22 +3380,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.85591397849462303</c:v>
+                  <c:v>0.78231292517006801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85806451612903201</c:v>
+                  <c:v>0.75510204081632604</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87885304659498198</c:v>
+                  <c:v>0.83484504913076296</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84587813620071595</c:v>
+                  <c:v>0.77815570672713497</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77480798771121295</c:v>
+                  <c:v>0.71396177518626502</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.79109062980030698</c:v>
+                  <c:v>0.78911564625850295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3634,9 +3422,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
+              <a:srgbClr val="FF00FF">
+                <a:alpha val="44000"/>
+              </a:srgbClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3644,61 +3432,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inBase"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Accuracy_per_fold!$B$4:$B$10</c:f>
@@ -3775,7 +3508,8 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
+                <a:lumMod val="50000"/>
+                <a:alpha val="46000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -3784,61 +3518,6 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inBase"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Accuracy_per_fold!$B$4:$B$10</c:f>
@@ -3918,69 +3597,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Model</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.47603972616190915"/>
-              <c:y val="0.90943527022146597"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4003,7 +3619,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4054,7 +3670,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4067,7 +3683,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:rPr lang="en-US" sz="1600"/>
                   <a:t>Accuracy</a:t>
                 </a:r>
               </a:p>
@@ -4086,7 +3702,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4102,7 +3718,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4118,7 +3734,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4153,8 +3769,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.92469737106527561"/>
           <c:y val="0.21600180416777306"/>
-          <c:w val="2.5522041763341066E-2"/>
-          <c:h val="0.63899427346479021"/>
+          <c:w val="5.6323644386092921E-2"/>
+          <c:h val="0.6887955453446637"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4170,7 +3786,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4493,6 +4109,94 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.7108218608223949E-2"/>
+                  <c:y val="-0.10711396593047358"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-8392-470E-960E-DC008E04C7EB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.1418228532851027E-2"/>
+                  <c:y val="-8.403437483125159E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-8392-470E-960E-DC008E04C7EB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.2366560212079822E-2"/>
+                  <c:y val="-8.7331459273997589E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-8392-470E-960E-DC008E04C7EB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8056550287452771E-2"/>
+                  <c:y val="-8.7331459273997589E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-8392-470E-960E-DC008E04C7EB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -4507,7 +4211,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -4536,12 +4240,7 @@
                 <c15:leaderLines>
                   <c:spPr>
                     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
+                      <a:noFill/>
                       <a:round/>
                     </a:ln>
                     <a:effectLst/>
@@ -4672,9 +4371,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.9233871651026917"/>
-          <c:y val="4.5161050181620734E-2"/>
-          <c:w val="4.2027524940561632E-2"/>
+          <c:x val="0.9281288542308922"/>
+          <c:y val="6.1646392626161513E-2"/>
+          <c:w val="6.4787481484197315E-2"/>
           <c:h val="5.8429369555666993E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -4691,7 +4390,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -7119,13 +6818,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>27621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>52917</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>171861</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7155,13 +6854,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>302893</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>132262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1587499</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>174150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7191,23 +6890,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>194310</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>263525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>222885</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Arrow: Left 3">
+        <xdr:cNvPr id="8" name="Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CF52CCA-8710-5EBF-74BD-AE8F10ED4E90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0698C695-83BB-707B-9F74-9F1DCFA0C05D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7215,12 +6914,22 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12096750" y="556260"/>
-          <a:ext cx="1857375" cy="904875"/>
+          <a:off x="180975" y="987425"/>
+          <a:ext cx="13735050" cy="296545"/>
         </a:xfrm>
-        <a:prstGeom prst="leftArrow">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050">
+            <a:alpha val="17000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7242,8 +6951,15 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7251,23 +6967,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>173567</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>247649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>17145</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>10794</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rectangle 7">
+        <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0698C695-83BB-707B-9F74-9F1DCFA0C05D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E6E3D1B-7EA2-4EF6-B8AB-AEF98DA861CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7275,16 +6991,20 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="180975" y="933450"/>
-          <a:ext cx="11420475" cy="226695"/>
+          <a:off x="173567" y="2025649"/>
+          <a:ext cx="13790083" cy="292312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="00B050">
+            <a:alpha val="17000"/>
+          </a:srgbClr>
+        </a:solidFill>
         <a:ln w="38100">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:srgbClr val="00B050"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -8350,9 +8070,9 @@
         <item x="4"/>
         <item x="1"/>
         <item x="8"/>
-        <item x="0"/>
         <item x="9"/>
         <item x="5"/>
+        <item x="0"/>
         <item x="6"/>
         <item x="2"/>
         <item t="default"/>
@@ -8435,51 +8155,95 @@
   <dataFields count="1">
     <dataField name="Average of Accuracy(Validation)" fld="4" subtotal="average" baseField="1" baseItem="0" numFmtId="10"/>
   </dataFields>
-  <formats count="11">
-    <format dxfId="10">
+  <formats count="23">
+    <format dxfId="45">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="44">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="43">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="42">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="39">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="38">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="37">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
+    <format dxfId="34">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="33">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="32">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="31">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="30">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="29">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="28">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="27">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="26">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="25">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="24">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="23">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
   </formats>
-  <conditionalFormats count="18">
-    <conditionalFormat priority="21">
+  <conditionalFormats count="13">
+    <conditionalFormat priority="28">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -8500,7 +8264,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="20">
+    <conditionalFormat priority="27">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -8521,7 +8285,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="19">
+    <conditionalFormat priority="26">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -8542,7 +8306,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="18">
+    <conditionalFormat priority="25">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -8563,7 +8327,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="17">
+    <conditionalFormat priority="24">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -8584,7 +8348,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="16">
+    <conditionalFormat priority="23">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -8605,7 +8369,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="14">
+    <conditionalFormat priority="21">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -8631,7 +8395,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="13">
+    <conditionalFormat priority="20">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -8657,7 +8421,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="12">
+    <conditionalFormat priority="19">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -8683,7 +8447,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="11">
+    <conditionalFormat priority="18">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -8709,7 +8473,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="10">
+    <conditionalFormat priority="17">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -8735,7 +8499,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="9">
+    <conditionalFormat priority="16">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -8761,131 +8525,12 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="7">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
-        <pivotArea fieldPosition="0">
+        <pivotArea type="data" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
-            <reference field="1" count="1">
-              <x v="6"/>
-            </reference>
-            <reference field="2" count="0" selected="0"/>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="6">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
-            </reference>
-            <reference field="1" count="1">
-              <x v="7"/>
-            </reference>
-            <reference field="2" count="10" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="5">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1">
-              <x v="8"/>
-            </reference>
-            <reference field="2" count="10" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="4">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1">
-              <x v="9"/>
-            </reference>
-            <reference field="2" count="10" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="3">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1">
-              <x v="10"/>
-            </reference>
-            <reference field="2" count="10" selected="0">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="2">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="3">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1">
-              <x v="11"/>
             </reference>
             <reference field="2" count="10" selected="0">
               <x v="0"/>
@@ -8972,7 +8617,7 @@
             <x v="0"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="5"/>
+            <x v="7"/>
           </reference>
         </references>
       </pivotArea>
@@ -8984,7 +8629,7 @@
             <x v="0"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="6"/>
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -8996,7 +8641,7 @@
             <x v="0"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="7"/>
+            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
@@ -9035,7 +8680,7 @@
             <x v="0"/>
           </reference>
           <reference field="2" count="1" selected="0">
-            <x v="5"/>
+            <x v="7"/>
           </reference>
         </references>
       </pivotArea>
@@ -9045,8 +8690,8 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1">
-        <x14:conditionalFormats count="2">
-          <x14:conditionalFormat priority="8" id="{4275FAED-FBAC-4D01-8DE9-0D7255CD9300}">
+        <x14:conditionalFormats count="1">
+          <x14:conditionalFormat priority="15" id="{4275FAED-FBAC-4D01-8DE9-0D7255CD9300}">
             <x14:pivotAreas count="1">
               <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
                 <references count="2">
@@ -9060,25 +8705,6 @@
                     <x v="3"/>
                     <x v="4"/>
                     <x v="5"/>
-                  </reference>
-                </references>
-              </pivotArea>
-            </x14:pivotAreas>
-          </x14:conditionalFormat>
-          <x14:conditionalFormat priority="1" id="{3A9D3AF8-726A-4989-81CB-D4128E8FAE4A}">
-            <x14:pivotAreas count="1">
-              <pivotArea type="data" grandCol="1" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-                <references count="2">
-                  <reference field="4294967294" count="1" selected="0">
-                    <x v="0"/>
-                  </reference>
-                  <reference field="1" count="6">
-                    <x v="6"/>
-                    <x v="7"/>
-                    <x v="8"/>
-                    <x v="9"/>
-                    <x v="10"/>
-                    <x v="11"/>
                   </reference>
                 </references>
               </pivotArea>
@@ -9393,7 +9019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601C61FE-42CD-4807-8B8B-9A7434589DCA}">
   <dimension ref="B2:R54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9417,17 +9043,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="2:18" s="7" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
-      <c r="C3" s="15" t="s">
+    <row r="3" spans="2:18" s="6" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E3"/>
@@ -9446,190 +9072,190 @@
       <c r="R3"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
       <c r="E4"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>12</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <f>AVERAGEIF(raw_data!$C$2:$C$61,Comparison!B6,raw_data!$F$2:$F$61)</f>
         <v>0.84137538663366329</v>
       </c>
-      <c r="D6" s="11" cm="1">
+      <c r="D6" s="10" cm="1">
         <f t="array" ref="D6">_xlfn.STDEV.S(IF(raw_data!$C$2:$C$61=B6, raw_data!$F$2:$F$61))</f>
         <v>3.4324122089020186E-2</v>
       </c>
       <c r="E6"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="22">
         <f>AVERAGEIF(raw_data!$C$2:$C$61,Comparison!B7,raw_data!$F$2:$F$61)</f>
         <v>0.82784970344753239</v>
       </c>
-      <c r="D7" s="26" cm="1">
+      <c r="D7" s="22" cm="1">
         <f t="array" ref="D7">_xlfn.STDEV.S(IF(raw_data!$C$2:$C$61=B7, raw_data!$F$2:$F$61))</f>
         <v>3.601469079383416E-2</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="27"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <f>AVERAGEIF(raw_data!$C$2:$C$61,Comparison!B8,raw_data!$F$2:$F$61)</f>
         <v>0.86286536315074325</v>
       </c>
-      <c r="D8" s="17" cm="1">
+      <c r="D8" s="16" cm="1">
         <f t="array" ref="D8">_xlfn.STDEV.S(IF(raw_data!$C$2:$C$61=B8, raw_data!$F$2:$F$61))</f>
         <v>2.4357115622488264E-2</v>
       </c>
       <c r="E8"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <f>AVERAGEIF(raw_data!$C$2:$C$61,Comparison!B9,raw_data!$F$2:$F$61)</f>
         <v>0.85265372074970824</v>
       </c>
-      <c r="D9" s="17" cm="1">
+      <c r="D9" s="16" cm="1">
         <f t="array" ref="D9">_xlfn.STDEV.S(IF(raw_data!$C$2:$C$61=B9, raw_data!$F$2:$F$61))</f>
         <v>3.8796933046877424E-2</v>
       </c>
       <c r="E9"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <f>AVERAGEIF(raw_data!$C$2:$C$61,Comparison!B10,raw_data!$F$2:$F$61)</f>
         <v>0.76980221302624974</v>
       </c>
-      <c r="D10" s="17" cm="1">
+      <c r="D10" s="16" cm="1">
         <f t="array" ref="D10">_xlfn.STDEV.S(IF(raw_data!$C$2:$C$61=B10, raw_data!$F$2:$F$61))</f>
         <v>4.3271181673136316E-2</v>
       </c>
       <c r="E10"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="24">
         <f>AVERAGEIF(raw_data!$C$2:$C$61,Comparison!B11,raw_data!$F$2:$F$61)</f>
         <v>0.80028823293293061</v>
       </c>
-      <c r="D11" s="28" cm="1">
+      <c r="D11" s="24" cm="1">
         <f t="array" ref="D11">_xlfn.STDEV.S(IF(raw_data!$C$2:$C$61=B11, raw_data!$F$2:$F$61))</f>
         <v>2.7126764295843944E-2</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27" t="s">
+      <c r="E11" s="23"/>
+      <c r="F11" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="27"/>
-    </row>
-    <row r="42" spans="2:12" s="20" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-    </row>
-    <row r="43" spans="2:12" s="20" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-    </row>
-    <row r="44" spans="2:12" s="20" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-    </row>
-    <row r="45" spans="2:12" s="20" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="42" spans="2:12" s="19" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+    </row>
+    <row r="43" spans="2:12" s="19" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+    </row>
+    <row r="44" spans="2:12" s="19" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+    </row>
+    <row r="45" spans="2:12" s="19" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="21"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="20"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D48" s="21"/>
+      <c r="D48" s="20"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D49" s="21"/>
+      <c r="D49" s="20"/>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D50" s="21"/>
+      <c r="D50" s="20"/>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D51" s="21"/>
+      <c r="D51" s="20"/>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D52" s="21"/>
+      <c r="D52" s="20"/>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D53" s="21"/>
+      <c r="D53" s="20"/>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D54" s="21"/>
+      <c r="D54" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9647,764 +9273,784 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31F1813-8953-45E6-934E-1F937A403243}">
-  <dimension ref="B2:M199"/>
+  <dimension ref="B2:M194"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="11.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="5" customWidth="1"/>
-    <col min="10" max="12" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="45" customWidth="1"/>
+    <col min="3" max="8" width="13.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="4" customWidth="1"/>
+    <col min="10" max="12" width="13.5703125" customWidth="1"/>
     <col min="13" max="13" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:13" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+    </row>
+    <row r="3" spans="2:13" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B3" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="28">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="28">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="28">
         <v>3</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="28">
         <v>4</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="28">
         <v>5</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="28">
+        <v>6</v>
+      </c>
+      <c r="I3" s="28">
+        <v>7</v>
+      </c>
+      <c r="J3" s="28">
         <v>8</v>
       </c>
-      <c r="I3" s="1">
-        <v>6</v>
-      </c>
-      <c r="J3" s="1">
-        <v>7</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="K3" s="28">
         <v>9</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="28">
         <v>10</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:13" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B4" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="31">
         <v>0.86610878661087798</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="31">
         <v>0.82268041237113398</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="31">
         <v>0.85447761194029803</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="31">
         <v>0.80300500834724498</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="31">
         <v>0.87334593572778796</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="31">
+        <v>0.88478260869565195</v>
+      </c>
+      <c r="I4" s="31">
+        <v>0.85591397849462303</v>
+      </c>
+      <c r="J4" s="31">
         <v>0.78231292517006801</v>
       </c>
-      <c r="I4" s="2">
-        <v>0.88478260869565195</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.85591397849462303</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="K4" s="31">
         <v>0.86129753914988805</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="31">
         <v>0.80982905982905895</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="31">
         <v>0.84137538663366329</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:13" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="31">
         <v>0.85983263598326298</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="31">
         <v>0.82680412371134004</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="31">
         <v>0.86380597014925298</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="31">
         <v>0.78464106844741199</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="31">
         <v>0.84877126654064206</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="31">
+        <v>0.83913043478260796</v>
+      </c>
+      <c r="I5" s="31">
+        <v>0.85806451612903201</v>
+      </c>
+      <c r="J5" s="31">
         <v>0.75510204081632604</v>
       </c>
-      <c r="I5" s="2">
-        <v>0.83913043478260796</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.85806451612903201</v>
-      </c>
-      <c r="K5" s="2">
+      <c r="K5" s="31">
         <v>0.83892617449664397</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="31">
         <v>0.80341880341880301</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="31">
         <v>0.82784970344753217</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:13" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B6" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="31">
         <v>0.86750348675034805</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="31">
         <v>0.88281786941580698</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="31">
         <v>0.88215174129353202</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="31">
         <v>0.83249860879243098</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="31">
         <v>0.838059231253938</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="31">
+        <v>0.86847826086956503</v>
+      </c>
+      <c r="I6" s="31">
+        <v>0.87885304659498198</v>
+      </c>
+      <c r="J6" s="31">
         <v>0.83484504913076296</v>
       </c>
-      <c r="I6" s="2">
-        <v>0.86847826086956503</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.87885304659498198</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="K6" s="31">
         <v>0.90156599552572703</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="31">
         <v>0.841880341880341</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="31">
         <v>0.86286536315074325</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="2:13" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B7" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="31">
         <v>0.88075313807531297</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="31">
         <v>0.88865979381443205</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="31">
         <v>0.86225124378109397</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="31">
         <v>0.80467445742904797</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="31">
         <v>0.87523629489603005</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="31">
+        <v>0.87789855072463696</v>
+      </c>
+      <c r="I7" s="31">
+        <v>0.84587813620071595</v>
+      </c>
+      <c r="J7" s="31">
         <v>0.77815570672713497</v>
       </c>
-      <c r="I7" s="2">
-        <v>0.87789855072463696</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.84587813620071595</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="K7" s="31">
         <v>0.89038031319910504</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="31">
         <v>0.82264957264957195</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="31">
         <v>0.85265372074970824</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="2:13" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="31">
         <v>0.75732217573221705</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="31">
         <v>0.79116347569955803</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="31">
         <v>0.81743070362473302</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="31">
         <v>0.70283806343906496</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="31">
         <v>0.78341884958142005</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="31">
+        <v>0.79720496894409898</v>
+      </c>
+      <c r="I8" s="31">
+        <v>0.77480798771121295</v>
+      </c>
+      <c r="J8" s="31">
         <v>0.71396177518626502</v>
       </c>
-      <c r="I8" s="2">
-        <v>0.79720496894409898</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.77480798771121295</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="K8" s="31">
         <v>0.83093640140619995</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="31">
         <v>0.72893772893772801</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="31">
         <v>0.76980221302624985</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="2:13" s="29" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B9" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="31">
         <v>0.80543933054393302</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="31">
         <v>0.77702503681885104</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="31">
         <v>0.819029850746268</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="31">
         <v>0.77343191032673497</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="31">
         <v>0.82338644342425005</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="31">
+        <v>0.82142857142857095</v>
+      </c>
+      <c r="I9" s="31">
+        <v>0.79109062980030698</v>
+      </c>
+      <c r="J9" s="31">
         <v>0.78911564625850295</v>
       </c>
-      <c r="I9" s="2">
-        <v>0.82142857142857095</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.79109062980030698</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="K9" s="31">
         <v>0.84499840204538101</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="31">
         <v>0.75793650793650702</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="31">
         <v>0.80028823293293061</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="2:13" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="31">
         <v>0.83949325894932547</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="31">
         <v>0.83152511863852041</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="31">
         <v>0.8498578535891963</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="31">
         <v>0.78351485279698929</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="31">
         <v>0.84036967023734477</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="31">
+        <v>0.84815389924085538</v>
+      </c>
+      <c r="I10" s="31">
+        <v>0.83410138248847876</v>
+      </c>
+      <c r="J10" s="31">
         <v>0.77558219054817668</v>
       </c>
-      <c r="I10" s="2">
-        <v>0.84815389924085538</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0.83410138248847876</v>
-      </c>
-      <c r="K10" s="2">
+      <c r="K10" s="31">
         <v>0.86135080430382427</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="31">
         <v>0.7941086691086684</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="31">
         <v>0.82580576999013811</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I11"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I12"/>
+    <row r="11" spans="2:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+    </row>
+    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
     </row>
     <row r="50" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
     </row>
     <row r="51" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
     </row>
     <row r="52" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
     </row>
     <row r="53" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
     </row>
     <row r="54" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
     </row>
     <row r="55" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
     </row>
     <row r="56" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
     </row>
     <row r="57" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
     </row>
     <row r="58" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
     </row>
     <row r="59" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
     </row>
     <row r="60" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
     </row>
     <row r="61" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
     </row>
     <row r="62" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
     </row>
     <row r="63" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
     </row>
     <row r="64" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
     </row>
     <row r="65" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
     </row>
     <row r="66" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
     </row>
     <row r="67" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
     </row>
     <row r="68" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
     </row>
     <row r="69" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
     </row>
     <row r="70" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
     </row>
     <row r="71" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
     </row>
     <row r="72" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
     </row>
     <row r="73" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
     </row>
     <row r="74" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
     </row>
     <row r="75" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
     </row>
     <row r="76" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
     </row>
     <row r="77" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
     </row>
     <row r="78" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
     </row>
     <row r="79" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
     </row>
     <row r="80" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
     </row>
     <row r="81" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
     </row>
     <row r="82" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
     </row>
     <row r="83" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
     </row>
     <row r="84" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
     </row>
     <row r="85" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
     </row>
     <row r="86" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
-    </row>
-    <row r="87" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="8"/>
-      <c r="L87" s="8"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
     </row>
     <row r="88" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
+      <c r="I88"/>
     </row>
     <row r="89" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
+      <c r="I89"/>
     </row>
     <row r="90" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
+      <c r="I90"/>
     </row>
     <row r="91" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
+      <c r="I91"/>
+    </row>
+    <row r="92" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="I92"/>
     </row>
     <row r="93" spans="5:12" x14ac:dyDescent="0.25">
       <c r="I93"/>
@@ -10418,23 +10064,23 @@
     <row r="96" spans="5:12" x14ac:dyDescent="0.25">
       <c r="I96"/>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I97"/>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I98"/>
-    </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I99"/>
-    </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I100"/>
-    </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I101"/>
-    </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I102"/>
+    <row r="111" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="K111" s="2"/>
+    </row>
+    <row r="112" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="K112" s="2"/>
+    </row>
+    <row r="113" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K113" s="2"/>
+    </row>
+    <row r="114" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K114" s="2"/>
+    </row>
+    <row r="115" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K115" s="2"/>
     </row>
     <row r="116" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K116" s="2"/>
@@ -10445,20 +10091,20 @@
     <row r="118" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K118" s="2"/>
     </row>
-    <row r="119" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K119" s="2"/>
-    </row>
-    <row r="120" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K120" s="2"/>
-    </row>
-    <row r="121" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K121" s="2"/>
-    </row>
-    <row r="122" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K122" s="2"/>
-    </row>
-    <row r="123" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K123" s="2"/>
+    <row r="165" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I165"/>
+    </row>
+    <row r="166" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I166"/>
+    </row>
+    <row r="167" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I167"/>
+    </row>
+    <row r="168" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I168"/>
+    </row>
+    <row r="169" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I169"/>
     </row>
     <row r="170" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I170"/>
@@ -10535,24 +10181,81 @@
     <row r="194" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I194"/>
     </row>
-    <row r="195" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I195"/>
-    </row>
-    <row r="196" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I196"/>
-    </row>
-    <row r="197" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I197"/>
-    </row>
-    <row r="198" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I198"/>
-    </row>
-    <row r="199" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I199"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="K116:K123">
-    <cfRule type="colorScale" priority="85">
+  <conditionalFormatting sqref="K111:K118">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10635,140 +10338,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="C4:L4">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="C5:L5">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="C6:L6">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="C7:L7">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="C8:L8">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="C9:L9">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting pivot="1" sqref="C10:L10">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10786,7 +10357,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" pivot="1">
-          <x14:cfRule type="iconSet" priority="8" id="{4275FAED-FBAC-4D01-8DE9-0D7255CD9300}">
+          <x14:cfRule type="iconSet" priority="15" id="{4275FAED-FBAC-4D01-8DE9-0D7255CD9300}">
             <x14:iconSet iconSet="3Stars">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -10799,22 +10370,6 @@
               </x14:cfvo>
             </x14:iconSet>
           </x14:cfRule>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" pivot="1">
-          <x14:cfRule type="iconSet" priority="1" id="{3A9D3AF8-726A-4989-81CB-D4128E8FAE4A}">
-            <x14:iconSet iconSet="3Stars">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>33</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>67</xm:f>
-              </x14:cfvo>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M4:M9</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -10899,28 +10454,28 @@
       <c r="D2" s="1">
         <v>8</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>0.99527363184079598</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>0.78231292517006801</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>0.99527231949672301</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>0.780172465792206</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>0.99530801982569705</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <v>0.80927108581057094</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <v>0.99527363184079598</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="5">
         <v>0.78231292517006801</v>
       </c>
       <c r="M2">
@@ -10940,28 +10495,28 @@
       <c r="D3" s="1">
         <v>4</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>0.99974213512119603</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>0.80300500834724498</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>0.99974213502293896</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>0.80701728444127596</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>0.99974245308035603</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>0.82499847833094697</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <v>0.99974213512119603</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>0.80300500834724498</v>
       </c>
       <c r="M3">
@@ -10981,28 +10536,28 @@
       <c r="D4" s="1">
         <v>10</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>0.99899899899899902</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>0.80982905982905895</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>0.99899905511121301</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>0.80985531073235895</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>0.99900232294796798</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>0.81895157419632902</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>0.99899899899899902</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>0.80982905982905895</v>
       </c>
       <c r="M4">
@@ -11022,28 +10577,28 @@
       <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>0.82268041237113398</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>1</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>0.81515877275968396</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>1</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>0.82606151154292795</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>1</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>0.82268041237113398</v>
       </c>
       <c r="M5">
@@ -11063,28 +10618,28 @@
       <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>0.99084900864260295</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>0.85447761194029803</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>0.99083392000403203</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>0.856241921033845</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>0.99092955213853595</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <v>0.86250034722013802</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>0.99084900864260295</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>0.85447761194029803</v>
       </c>
       <c r="M6">
@@ -11104,28 +10659,28 @@
       <c r="D7" s="1">
         <v>7</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>0.99649824912456197</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>0.85591397849462303</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>0.99650199993586197</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>0.85646499467602399</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>0.99653093279906602</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>0.86087234665658796</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>0.99649824912456197</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>0.85591397849462303</v>
       </c>
       <c r="M7">
@@ -11145,28 +10700,28 @@
       <c r="D8" s="1">
         <v>9</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>0.98928749377179803</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>0.86129753914988805</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>0.98938352776977301</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>0.86021661220235401</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>0.98980243262203604</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>0.866952942977818</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>0.98928749377179803</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>0.86129753914988805</v>
       </c>
       <c r="M8">
@@ -11186,28 +10741,28 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>1</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>0.86610878661087798</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>1</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>0.86577921692515003</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>1</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>0.868270013673067</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>1</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>0.86610878661087798</v>
       </c>
       <c r="M9">
@@ -11227,28 +10782,28 @@
       <c r="D10" s="1">
         <v>5</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>0.99974625729510203</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>0.87334593572778796</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>0.99974625729510203</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>0.874009641692582</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>0.99974657017143398</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>0.88057230130773301</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>0.99974625729510203</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>0.87334593572778796</v>
       </c>
       <c r="M10">
@@ -11268,28 +10823,28 @@
       <c r="D11" s="1">
         <v>6</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>0.99675243567324501</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>0.88478260869565195</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>0.99675597950550099</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>0.88186757875542499</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>0.99679506037299404</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>0.88662003127494804</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>0.99675243567324501</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>0.88478260869565195</v>
       </c>
       <c r="M11">
@@ -11309,28 +10864,28 @@
       <c r="D12" s="1">
         <v>8</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>0.99875621890547195</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>0.75510204081632604</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>0.99875750047374401</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>0.75571103516448401</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>0.99876530506490402</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>0.78783698184338702</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>0.99875621890547195</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>0.75510204081632604</v>
       </c>
       <c r="M12">
@@ -11350,28 +10905,28 @@
       <c r="D13" s="1">
         <v>4</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>0.98788035069623503</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>0.78464106844741199</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>0.98790002094445795</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>0.78936099414841299</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>0.98808552700893204</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>0.81020129333983604</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>0.98788035069623503</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>0.78464106844741199</v>
       </c>
       <c r="M13">
@@ -11391,28 +10946,28 @@
       <c r="D14" s="1">
         <v>10</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>0.98423423423423395</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>0.80341880341880301</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>0.98426975813280904</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>0.79696144012745995</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>0.98483401110338598</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>0.82220694496056801</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>0.98423423423423395</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <v>0.80341880341880301</v>
       </c>
       <c r="M14">
@@ -11432,28 +10987,28 @@
       <c r="D15" s="1">
         <v>2</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>0.99623115577889398</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>0.82680412371134004</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>0.99622605477803805</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>0.82105809103493099</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <v>0.99625898873409702</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <v>0.84472705937930903</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <v>0.99623115577889398</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="5">
         <v>0.82680412371134004</v>
       </c>
       <c r="M15">
@@ -11473,28 +11028,28 @@
       <c r="D16" s="1">
         <v>9</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>0.99053313403089105</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>0.83892617449664397</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>0.99052572263008598</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>0.83779205450868499</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <v>0.99080861775167095</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <v>0.84484318828451299</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>0.99053313403089105</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="5">
         <v>0.83892617449664397</v>
       </c>
       <c r="M16">
@@ -11514,28 +11069,28 @@
       <c r="D17" s="1">
         <v>6</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>0.998001498875843</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>0.83913043478260796</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>0.99800268062489395</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <v>0.83581237151876897</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <v>0.99801422561001596</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>0.841077519859881</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <v>0.998001498875843</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="5">
         <v>0.83913043478260796</v>
       </c>
       <c r="M17">
@@ -11555,28 +11110,28 @@
       <c r="D18" s="1">
         <v>5</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>0.99061151991880203</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>0.84877126654064206</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>0.99062732193829395</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>0.85270054227874703</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <v>0.99078116718574205</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <v>0.87060822814838901</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>0.99061151991880203</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <v>0.84877126654064206</v>
       </c>
       <c r="M18">
@@ -11596,28 +11151,28 @@
       <c r="D19" s="1">
         <v>7</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>0.99974987493746803</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>0.85806451612903201</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>0.99974993932436296</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>0.85932775101753001</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <v>0.99975044083127496</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <v>0.86432533179608995</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <v>0.99974987493746803</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="5">
         <v>0.85806451612903201</v>
       </c>
       <c r="M19">
@@ -11637,28 +11192,28 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>0.99498369701529898</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>0.85983263598326298</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>0.99497774367226699</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <v>0.86024427100637002</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <v>0.99501605250910397</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <v>0.86387773622496</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <v>0.99498369701529898</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="5">
         <v>0.85983263598326298</v>
       </c>
       <c r="M20">
@@ -11678,28 +11233,28 @@
       <c r="D21" s="1">
         <v>3</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>0.99822064056939497</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>0.86380597014925298</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>0.99822137891029605</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <v>0.86626099201164197</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="5">
         <v>0.99823267664423398</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <v>0.88028737342531205</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <v>0.99822064056939497</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="5">
         <v>0.86380597014925298</v>
       </c>
       <c r="M21">
@@ -11719,28 +11274,28 @@
       <c r="D22" s="1">
         <v>4</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>0.99978511260099701</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>0.83249860879243098</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>0.99978508275156897</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <v>0.83263946984106996</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <v>0.99978520459606901</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <v>0.83972114913915397</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
         <v>0.99978511260099701</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="5">
         <v>0.83249860879243098</v>
       </c>
       <c r="M22">
@@ -11760,28 +11315,28 @@
       <c r="D23" s="1">
         <v>8</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>1</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>0.83484504913076296</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>1</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <v>0.83486014157419397</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <v>1</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <v>0.844911172386828</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <v>1</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="5">
         <v>0.83484504913076296</v>
       </c>
       <c r="M23">
@@ -11801,28 +11356,28 @@
       <c r="D24" s="1">
         <v>5</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>0.999450224139389</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>0.838059231253938</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>0.99945028929303203</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <v>0.839592999010912</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <v>0.99945094864501804</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <v>0.85663973757470502</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <v>0.999450224139389</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="5">
         <v>0.838059231253938</v>
       </c>
       <c r="M24">
@@ -11842,28 +11397,28 @@
       <c r="D25" s="1">
         <v>10</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>0.99966633299966601</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>0.841880341880341</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>0.999666333386659</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>0.83797689692946498</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <v>0.99966657538334902</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <v>0.84803619560176602</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <v>0.99966633299966601</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="5">
         <v>0.841880341880341</v>
       </c>
       <c r="M25">
@@ -11883,28 +11438,28 @@
       <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>1</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>0.86750348675034805</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>1</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <v>0.867713679523889</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="5">
         <v>1</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="5">
         <v>0.87222535497689102</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <v>1</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="5">
         <v>0.86750348675034805</v>
       </c>
       <c r="M26">
@@ -11924,28 +11479,28 @@
       <c r="D27" s="1">
         <v>6</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>0.99983346517340399</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <v>0.86847826086956503</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <v>0.99983346522727801</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="5">
         <v>0.86853734490810997</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="5">
         <v>0.99983350010065097</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <v>0.87100290042772099</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="5">
         <v>0.99983346517340399</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="5">
         <v>0.86847826086956503</v>
       </c>
       <c r="M27">
@@ -11965,28 +11520,28 @@
       <c r="D28" s="1">
         <v>7</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>0.99983327775925301</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <v>0.87885304659498198</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <v>0.99983329091572704</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="5">
         <v>0.87883319319041298</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="5">
         <v>0.99983338898701901</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="5">
         <v>0.880783263648246</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="5">
         <v>0.99983327775925301</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="5">
         <v>0.87885304659498198</v>
       </c>
       <c r="M28">
@@ -12006,28 +11561,28 @@
       <c r="D29" s="1">
         <v>3</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>1</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <v>0.88215174129353202</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <v>1</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="5">
         <v>0.88287198640113096</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="5">
         <v>1</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="5">
         <v>0.88634226288335904</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="5">
         <v>1</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="5">
         <v>0.88215174129353202</v>
       </c>
       <c r="M29">
@@ -12047,28 +11602,28 @@
       <c r="D30" s="1">
         <v>2</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>0.99991626193267402</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>0.88281786941580698</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <v>0.99991627587815002</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="5">
         <v>0.88192360720927498</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="5">
         <v>0.99991634198818802</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="5">
         <v>0.88466646314149</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="5">
         <v>0.99991626193267402</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="5">
         <v>0.88281786941580698</v>
       </c>
       <c r="M30">
@@ -12088,28 +11643,28 @@
       <c r="D31" s="1">
         <v>9</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>0.99941882186890196</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <v>0.90156599552572703</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="5">
         <v>0.99941883435043499</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="5">
         <v>0.90087213987403203</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="5">
         <v>0.99941982823729203</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="5">
         <v>0.901645432757189</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="5">
         <v>0.99941882186890196</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31" s="5">
         <v>0.90156599552572703</v>
       </c>
       <c r="M31">
